--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,76 +487,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,76 +487,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
